--- a/ExcelData/TC_Ogranization.xlsx
+++ b/ExcelData/TC_Ogranization.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>orgName</t>
   </si>
@@ -64,101 +64,38 @@
     <t>sfc@yopmail.com</t>
   </si>
   <si>
+    <t>132 new street</t>
+  </si>
+  <si>
+    <t>main street</t>
+  </si>
+  <si>
+    <t>new city</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>+911234567890</t>
   </si>
   <si>
-    <t>132 new street</t>
-  </si>
-  <si>
-    <t>main street</t>
-  </si>
-  <si>
-    <t>new city</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <r>
-      <t>(UTC +05:30) Asia/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3F7F5F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Kolkata</t>
-    </r>
-  </si>
-  <si>
-    <t>SFCTIMEPASS</t>
-  </si>
-  <si>
-    <t>SFTM</t>
-  </si>
-  <si>
-    <t>sfctime@yopmail.com</t>
+    <t>(UTC +05:30) Asia/Kolkata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A3E3E"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0066CC"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F7F5F"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF3F7F5F"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,42 +114,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,124 +401,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2">
+        <v>123456</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
